--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniudamce-my.sharepoint.com/personal/133102_spes_uniud_it/Documents/Magistrale/Advanced Scheduling Systems/progetto_GitHub/Sched_LocalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{EA6A6FB5-53A0-4414-BFDC-F83DDA1D0408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2DFFC9-6A84-434B-AC89-CE237897EBED}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{EA6A6FB5-53A0-4414-BFDC-F83DDA1D0408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2DE2CE-24A1-478A-BC78-FC075A68667F}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{24023630-6B33-4A1E-AB86-C6111BE1198E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Random</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>max_tenure</t>
+  </si>
+  <si>
+    <t>Instance8.txt</t>
+  </si>
+  <si>
+    <t>Instance9.txt</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,11 +772,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,34 +811,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1142,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6812037D-2411-4634-803E-EB191BA0340B}">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1201,12 +1210,12 @@
       <c r="Q2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1215,7 +1224,7 @@
       <c r="D3" s="9">
         <v>1155</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10">
@@ -1242,10 +1251,10 @@
       <c r="O3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="37" t="s">
         <v>28</v>
       </c>
       <c r="R3" s="31">
@@ -1253,14 +1262,14 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="38"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="20">
         <v>20</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <v>0</v>
       </c>
       <c r="F4" s="21">
@@ -1287,10 +1296,10 @@
       <c r="O4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="2">
@@ -1298,14 +1307,14 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="38"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="36">
         <v>0</v>
       </c>
       <c r="F5" s="14">
@@ -1326,21 +1335,31 @@
       <c r="M5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="35"/>
+      <c r="N5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="40">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="41">
+        <v>600</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="38"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>0</v>
       </c>
       <c r="F6" s="14">
@@ -1360,20 +1379,34 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="38"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1382,7 +1415,7 @@
       <c r="D8" s="9">
         <v>2255</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
       <c r="F8" s="10">
@@ -1402,14 +1435,14 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="38"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="20">
         <v>185</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
       <c r="F9" s="21">
@@ -1429,14 +1462,14 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="38"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="13">
         <v>160</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="36">
         <v>0</v>
       </c>
       <c r="F10" s="14">
@@ -1457,14 +1490,14 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="38"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="13">
         <v>165</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="36">
         <v>0</v>
       </c>
       <c r="F11" s="14">
@@ -1485,20 +1518,34 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="38"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="26"/>
+      <c r="D12" s="17">
+        <v>160</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>10</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>150</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1507,7 +1554,7 @@
       <c r="D13" s="9">
         <v>4225</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="10">
         <v>4</v>
       </c>
       <c r="F13" s="10">
@@ -1528,14 +1575,14 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="38"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="20">
         <v>100</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="35">
         <v>0</v>
       </c>
       <c r="F14" s="21">
@@ -1555,14 +1602,14 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="38"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="13">
         <v>75</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="36">
         <v>0</v>
       </c>
       <c r="F15" s="14">
@@ -1582,14 +1629,14 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="38"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="13">
         <v>85</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="36">
         <v>0</v>
       </c>
       <c r="F16" s="14">
@@ -1609,20 +1656,34 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="38"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26"/>
+      <c r="D17" s="17">
+        <v>75</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>75</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>600</v>
+      </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1631,7 +1692,7 @@
       <c r="D18" s="9">
         <v>2140</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="10">
         <v>2</v>
       </c>
       <c r="F18" s="10">
@@ -1651,14 +1712,14 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="38"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="20">
         <v>20</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
       <c r="F19" s="21">
@@ -1678,14 +1739,14 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="38"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="36">
         <v>0</v>
       </c>
       <c r="F20" s="14">
@@ -1705,14 +1766,14 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="38"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="13">
         <v>10</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="36">
         <v>0</v>
       </c>
       <c r="F21" s="14">
@@ -1732,21 +1793,35 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="38"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1E-3</v>
+      </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1755,7 +1830,7 @@
       <c r="D23" s="9">
         <v>8655</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="10">
         <v>8</v>
       </c>
       <c r="F23" s="10">
@@ -1775,14 +1850,14 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="38"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="20">
         <v>210</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="35">
         <v>0</v>
       </c>
       <c r="F24" s="21">
@@ -1802,14 +1877,14 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="38"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="13">
         <v>150</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="36">
         <v>0</v>
       </c>
       <c r="F25" s="14">
@@ -1829,14 +1904,14 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="38"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="13">
         <v>160</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="36">
         <v>0</v>
       </c>
       <c r="F26" s="14">
@@ -1857,20 +1932,34 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="38"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="26"/>
+      <c r="D27" s="17">
+        <v>150</v>
+      </c>
+      <c r="E27" s="42">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>150</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>600</v>
+      </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1879,7 +1968,7 @@
       <c r="D28" s="9">
         <v>53585</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="10">
         <v>50</v>
       </c>
       <c r="F28" s="10">
@@ -1899,14 +1988,14 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="38"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="20">
         <v>3745</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="21">
         <v>1</v>
       </c>
       <c r="F29" s="21">
@@ -1926,14 +2015,14 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="38"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="13">
         <v>2410</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="36">
         <v>0</v>
       </c>
       <c r="F30" s="14">
@@ -1953,14 +2042,14 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="38"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="13">
         <v>2575</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="36">
         <v>0</v>
       </c>
       <c r="F31" s="14">
@@ -1980,21 +2069,35 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="38"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="26"/>
+      <c r="D32" s="17">
+        <v>2460</v>
+      </c>
+      <c r="E32" s="42">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>90</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>2370</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="26">
+        <v>600</v>
+      </c>
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2003,7 +2106,7 @@
       <c r="D33" s="9">
         <v>42445</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="10">
         <v>39</v>
       </c>
       <c r="F33" s="10">
@@ -2024,14 +2127,14 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="38"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="20">
         <v>18000</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="21">
         <v>17</v>
       </c>
       <c r="F34" s="21">
@@ -2051,14 +2154,14 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="38"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="13">
         <v>600</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="36">
         <v>0</v>
       </c>
       <c r="F35" s="14">
@@ -2079,14 +2182,14 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="38"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="13">
         <v>11665</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="14">
         <v>11</v>
       </c>
       <c r="F36" s="14">
@@ -2106,30 +2209,44 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B37" s="38"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="26"/>
+      <c r="D37" s="17">
+        <v>600</v>
+      </c>
+      <c r="E37" s="42">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>600</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26">
+        <v>600</v>
+      </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="9">
-        <v>174800</v>
-      </c>
-      <c r="E38" s="42">
+        <v>17480</v>
+      </c>
+      <c r="E38" s="10">
         <v>15</v>
       </c>
       <c r="F38" s="10">
@@ -2149,14 +2266,14 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="38"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="20">
         <v>150</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="35">
         <v>0</v>
       </c>
       <c r="F39" s="21">
@@ -2176,14 +2293,14 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="36">
         <v>0</v>
       </c>
       <c r="F40" s="14">
@@ -2203,14 +2320,14 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="36">
         <v>0</v>
       </c>
       <c r="F41" s="14">
@@ -2230,20 +2347,310 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="27"/>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+      <c r="E42" s="43">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+      <c r="I42" s="24">
+        <v>0</v>
+      </c>
+      <c r="J42" s="27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>194600</v>
+      </c>
+      <c r="E43" s="10">
+        <v>185</v>
+      </c>
+      <c r="F43" s="10">
+        <v>2300</v>
+      </c>
+      <c r="G43" s="10">
+        <v>340</v>
+      </c>
+      <c r="H43" s="10">
+        <v>5370</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1590</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="45"/>
+      <c r="C44" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="20">
+        <v>33970</v>
+      </c>
+      <c r="E44" s="21">
+        <v>30</v>
+      </c>
+      <c r="F44" s="21">
+        <v>200</v>
+      </c>
+      <c r="G44" s="21">
+        <v>100</v>
+      </c>
+      <c r="H44" s="21">
+        <v>3150</v>
+      </c>
+      <c r="I44" s="21">
+        <v>520</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="45"/>
+      <c r="C45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="13">
+        <v>3250</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>100</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>3150</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>544.03800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="45"/>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="13">
+        <v>20375</v>
+      </c>
+      <c r="E46" s="14">
+        <v>17</v>
+      </c>
+      <c r="F46" s="14">
+        <v>130</v>
+      </c>
+      <c r="G46" s="14">
+        <v>85</v>
+      </c>
+      <c r="H46" s="14">
+        <v>3150</v>
+      </c>
+      <c r="I46" s="14">
+        <v>10</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="46"/>
+      <c r="C47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="23">
+        <v>3265</v>
+      </c>
+      <c r="E47" s="43">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24">
+        <v>100</v>
+      </c>
+      <c r="G47" s="24">
+        <v>15</v>
+      </c>
+      <c r="H47" s="24">
+        <v>3150</v>
+      </c>
+      <c r="I47" s="24">
+        <v>0</v>
+      </c>
+      <c r="J47" s="27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9">
+        <v>396745</v>
+      </c>
+      <c r="E48" s="10">
+        <v>376</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1320</v>
+      </c>
+      <c r="G48" s="10">
+        <v>245</v>
+      </c>
+      <c r="H48" s="10">
+        <v>17580</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1600</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="45"/>
+      <c r="C49" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20">
+        <v>198625</v>
+      </c>
+      <c r="E49" s="21">
+        <v>176</v>
+      </c>
+      <c r="F49" s="21">
+        <v>1320</v>
+      </c>
+      <c r="G49" s="21">
+        <v>695</v>
+      </c>
+      <c r="H49" s="21">
+        <v>19950</v>
+      </c>
+      <c r="I49" s="21">
+        <v>660</v>
+      </c>
+      <c r="J49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="45"/>
+      <c r="C50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="13">
+        <v>75045</v>
+      </c>
+      <c r="E50" s="47">
+        <v>51</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1330</v>
+      </c>
+      <c r="G50" s="14">
+        <v>410</v>
+      </c>
+      <c r="H50" s="14">
+        <v>21825</v>
+      </c>
+      <c r="I50" s="14">
+        <v>480</v>
+      </c>
+      <c r="J50" s="15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="45"/>
+      <c r="C51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="13">
+        <v>152160</v>
+      </c>
+      <c r="E51" s="14">
+        <v>129</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1330</v>
+      </c>
+      <c r="G51" s="14">
+        <v>650</v>
+      </c>
+      <c r="H51" s="14">
+        <v>20655</v>
+      </c>
+      <c r="I51" s="14">
+        <v>525</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="46"/>
+      <c r="C52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="23">
+        <v>76995</v>
+      </c>
+      <c r="E52" s="48">
+        <v>53</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1310</v>
+      </c>
+      <c r="G52" s="24">
+        <v>470</v>
+      </c>
+      <c r="H52" s="24">
+        <v>21795</v>
+      </c>
+      <c r="I52" s="24">
+        <v>520</v>
+      </c>
+      <c r="J52" s="27">
+        <v>600</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B43:B47"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
